--- a/test/Template+de+Plan+de+tests.xlsx
+++ b/test/Template+de+Plan+de+tests.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andri\Documents\projetOrnico\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andri\Documents\projetOrinoco\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4266088-E923-4658-BDEE-2BE6CEA8777D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12C826E-D63B-4081-A5A7-C46CB46BD65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3645" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,9 +166,6 @@
     <t>Pour Supprimer des produits dans le panier</t>
   </si>
   <si>
-    <t>On observe l'affichage dde la page panier dans le navigateur</t>
-  </si>
-  <si>
     <t>Les produits ne s'enlèvent pas</t>
   </si>
   <si>
@@ -352,9 +349,6 @@
     <t>Validation de tous les inputs avant l'envoie du formulaire vers le serveur</t>
   </si>
   <si>
-    <t>Verifier  pour le nom et prénom qu'il n'y pas des chiffres et au moins 3 caractères avec pattern="[^0-9]{3,20}",l'email en bonne format,  l'adresse et la ville en required</t>
-  </si>
-  <si>
     <t>Le panier est envoyer avec des inputs invalides</t>
   </si>
   <si>
@@ -1060,6 +1054,12 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>Verifier  pour le nom et prénom qu'il n'y pas des chiffres et au moins 3 caractères avec pattern="[^0-9]{3,20}",l'email en bonne format,  l'adresse et la ville en required, le code Postal ne contient que 5 chiffres</t>
+  </si>
+  <si>
+    <t>On observe l'affichage de la page panier dans le navigateur</t>
   </si>
 </sst>
 </file>
@@ -1478,8 +1478,8 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1540,7 +1540,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>11</v>
@@ -1557,7 +1557,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>14</v>
@@ -1574,7 +1574,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>17</v>
@@ -1594,7 +1594,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>20</v>
@@ -1611,7 +1611,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>29</v>
@@ -1645,7 +1645,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>32</v>
@@ -1662,7 +1662,7 @@
         <v>33</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>25</v>
@@ -1679,7 +1679,7 @@
         <v>34</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>35</v>
@@ -1696,7 +1696,7 @@
         <v>36</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>27</v>
@@ -1716,7 +1716,7 @@
         <v>39</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>38</v>
@@ -1733,7 +1733,7 @@
         <v>40</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>41</v>
@@ -1750,7 +1750,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>43</v>
@@ -1767,7 +1767,7 @@
         <v>44</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>45</v>
@@ -1781,138 +1781,138 @@
     </row>
     <row r="16" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>47</v>
       </c>
       <c r="E16" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="D18" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="E20" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>6</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
